--- a/biology/Botanique/Picea_jezoensis/Picea_jezoensis.xlsx
+++ b/biology/Botanique/Picea_jezoensis/Picea_jezoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Épicéa du Japon, Épicéa de Yéso
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand arbre atteignant 30 à 50 m de hauteur et 2 m de diamètre. Son écorce est sombre, fine et écailleuse, devenant fissurée chez les vieux arbres. Les pousses sont brun chamois pâle, glabres, avec des coussinets foliaires proéminents. Le feuillage forme un large cône.
 Les feuilles sont longues de 15 à 20 mm et ressemblent à des aiguilles élargies dans la partie centrale ; le dessus est vert sombre, sans stomates, et le dessous, bleu blanchâtre avec deux lignes continues de stomates.
@@ -555,7 +569,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre caractéristique de la forêt tempérée humide. Il est originaire du nord-est de l'Asie : on le rencontre dans les hautes montagnes de Honshū et de Hokkaidō au Japon, dans les monts Changbai à la frontière de la Chine et de la Corée, dans l'Extrême-Orient russe du Sikhote-Aline au Kamtchatka, à Sakhaline et aux îles Kouriles. Dans l'intérieur du continent, il ne se rencontre nulle part à plus de 400 km de la mer.
 En Russie et dans le nord du Japon, il est exploité pour le bois et l'industrie papetière et souvent victime d'exploitation forestière illégale.
@@ -587,7 +603,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aïnous, peuple autochtone de Hokkaidō et de Sakhaline, utilisent un instrument à cordes, le tonkori, dont la caisse est taillée dans du bois de Picea jezoensis.
 </t>
